--- a/editedInternships.xlsx
+++ b/editedInternships.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrab\Projects\internship-scraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrab\Projects\InternshipWebScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94994C4B-D93E-4455-A63A-2A2D09D45A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5323E4D5-0770-4E4C-8AA1-C69AFA9764B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="98">
   <si>
     <t>jobNames</t>
   </si>
@@ -44,12 +31,12 @@
     <t>companyNames</t>
   </si>
   <si>
+    <t>jobRegions</t>
+  </si>
+  <si>
     <t>jobLocations</t>
   </si>
   <si>
-    <t>jobRegions</t>
-  </si>
-  <si>
     <t>jobSalaries</t>
   </si>
   <si>
@@ -65,6 +52,9 @@
     <t>CENTRAL</t>
   </si>
   <si>
+    <t>70 Shenton Way Singapore, 089734, Central</t>
+  </si>
+  <si>
     <t>1250 SGD</t>
   </si>
   <si>
@@ -77,6 +67,9 @@
     <t>AIRES A.T PRIVATE LIMITED</t>
   </si>
   <si>
+    <t>20 Upper Circular Road Singapore, 058416, Central</t>
+  </si>
+  <si>
     <t>900 SGD</t>
   </si>
   <si>
@@ -92,6 +85,9 @@
     <t>Not Available</t>
   </si>
   <si>
+    <t>33 UBI AVENUE 3, VERTEX #08-42, 408868,</t>
+  </si>
+  <si>
     <t>1000 SGD</t>
   </si>
   <si>
@@ -104,6 +100,9 @@
     <t>PENSEES SYSTEMS PTE. LTD.</t>
   </si>
   <si>
+    <t>85 SCIENCE PARK DRIVE, #02-06 THE CAVENDISH, SINGAPORE SCIENCE PARK I , 118259,</t>
+  </si>
+  <si>
     <t>800 SGD</t>
   </si>
   <si>
@@ -140,6 +139,9 @@
     <t>SYNAPXE PTE. LTD.</t>
   </si>
   <si>
+    <t>1 N Buona Vista Link , 138675,</t>
+  </si>
+  <si>
     <t>business intelligence analyst intern</t>
   </si>
   <si>
@@ -149,6 +151,9 @@
     <t>CLEANTECH SOLAR DEVELOPMENT COMPANY PTE. LTD.</t>
   </si>
   <si>
+    <t>25 Church Street #03-04 Capital Square Three , 049482, Central</t>
+  </si>
+  <si>
     <t>national healthcare group mobility programme</t>
   </si>
   <si>
@@ -179,6 +184,9 @@
     <t>HENDRICKS CORP. PTE. LTD.</t>
   </si>
   <si>
+    <t>3, Ang Mo Kio Street 62, #07-13 Link @ AMK Singapore 569139 , 569139, Central</t>
+  </si>
+  <si>
     <t>intern</t>
   </si>
   <si>
@@ -188,6 +196,9 @@
     <t>PSA CORPORATION LIMITED</t>
   </si>
   <si>
+    <t>3 Harbour Drive Pasir Panjang Terminal Building 3, 117404,</t>
+  </si>
+  <si>
     <t>1200 SGD</t>
   </si>
   <si>
@@ -206,6 +217,9 @@
     <t>SEMBCORP INDUSTRIES LTD</t>
   </si>
   <si>
+    <t>30 HILL STREET #05-04, 179360,</t>
+  </si>
+  <si>
     <t>video data/ai engineering intern - 1036</t>
   </si>
   <si>
@@ -215,6 +229,9 @@
     <t>NCS PTE. LTD.</t>
   </si>
   <si>
+    <t>5 ANG MO KIO STREET 62, NCS HUB , 569141,</t>
+  </si>
+  <si>
     <t>digital technology (data analytics) intern</t>
   </si>
   <si>
@@ -224,6 +241,9 @@
     <t>SHIMANO (SINGAPORE) PRIVATE LIMITED</t>
   </si>
   <si>
+    <t>11 BULIM WALK , 648105,</t>
+  </si>
+  <si>
     <t>procurement intern</t>
   </si>
   <si>
@@ -233,6 +253,9 @@
     <t>DIC ASIA PACIFIC PTE LTD</t>
   </si>
   <si>
+    <t>78 SHENTON WAY #27-02/03, 079120,</t>
+  </si>
+  <si>
     <t>product engineer intern - 1112</t>
   </si>
   <si>
@@ -254,6 +277,9 @@
     <t>Monetary Authority of Singapore</t>
   </si>
   <si>
+    <t>10 SHENTON WAY, MAS BUILDING , 079117,</t>
+  </si>
+  <si>
     <t>ai intern</t>
   </si>
   <si>
@@ -266,6 +292,9 @@
     <t>WEST</t>
   </si>
   <si>
+    <t>T1A DSAC , 139651, West</t>
+  </si>
+  <si>
     <t>data analyst intern</t>
   </si>
   <si>
@@ -282,6 +311,9 @@
   </si>
   <si>
     <t>NANYANG TECHNOLOGICAL UNIVERSITY</t>
+  </si>
+  <si>
+    <t>Lee Kong Chian School Of Medicine 11 Mandalay Road, 308232,</t>
   </si>
 </sst>
 </file>
@@ -299,9 +331,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -322,16 +352,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -339,16 +369,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,7 +466,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -477,7 +500,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,6 +523,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -511,31 +534,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -557,7 +580,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -615,7 +638,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -628,12 +651,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -652,48 +676,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -705,515 +725,592 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>